--- a/results/tests_results/df_tests_results_2000_19_01.xlsx
+++ b/results/tests_results/df_tests_results_2000_19_01.xlsx
@@ -560,7 +560,7 @@
         <v>25</v>
       </c>
       <c r="O2" t="n">
-        <v>0.604</v>
+        <v>0.572</v>
       </c>
     </row>
   </sheetData>

--- a/results/tests_results/df_tests_results_2000_19_01.xlsx
+++ b/results/tests_results/df_tests_results_2000_19_01.xlsx
@@ -560,7 +560,7 @@
         <v>25</v>
       </c>
       <c r="O2" t="n">
-        <v>0.572</v>
+        <v>0.604</v>
       </c>
     </row>
   </sheetData>

--- a/results/tests_results/df_tests_results_2000_19_01.xlsx
+++ b/results/tests_results/df_tests_results_2000_19_01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,35 +476,40 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>d_layers</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>Neuro_d</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Batch Size</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Learning Rate</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>L2 Regurlar</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Optimizer</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Patience</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>tests_accuracy</t>
         </is>
@@ -540,26 +545,29 @@
         <v>40</v>
       </c>
       <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
         <v>5</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>32</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.0001</v>
       </c>
       <c r="L2" t="n">
         <v>0.0001</v>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="M2" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>Adam</t>
         </is>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>25</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>0.604</v>
       </c>
     </row>

--- a/results/tests_results/df_tests_results_2000_19_01.xlsx
+++ b/results/tests_results/df_tests_results_2000_19_01.xlsx
@@ -568,7 +568,7 @@
         <v>25</v>
       </c>
       <c r="P2" t="n">
-        <v>0.604</v>
+        <v>0.472</v>
       </c>
     </row>
   </sheetData>
